--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -426,24 +426,24 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>two</v>
+        <v>one</v>
       </c>
       <c r="B4" t="str">
-        <v>deux</v>
+        <v>un</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>three</v>
+        <v>one</v>
       </c>
       <c r="B5" t="str">
-        <v>trois</v>
+        <v>un</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -470,13 +470,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>three</v>
+        <v>one</v>
       </c>
       <c r="B8" t="str">
-        <v>trois</v>
+        <v>un</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -492,10 +492,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>two</v>
+        <v>three</v>
       </c>
       <c r="B10" t="str">
-        <v>deux</v>
+        <v>trois</v>
       </c>
       <c r="C10">
         <v>23</v>
@@ -503,12 +503,23 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>one</v>
+      </c>
+      <c r="B11" t="str">
+        <v>un</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
         <v>three</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B12" t="str">
         <v>trois</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>23</v>
       </c>
     </row>
@@ -534,10 +545,1660 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>two</v>
+      </c>
+      <c r="B15" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>one</v>
+      </c>
+      <c r="B16" t="str">
+        <v>un</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>one</v>
+      </c>
+      <c r="B17" t="str">
+        <v>un</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>three</v>
+      </c>
+      <c r="B18" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>two</v>
+      </c>
+      <c r="B19" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>one</v>
+      </c>
+      <c r="B20" t="str">
+        <v>un</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>three</v>
+      </c>
+      <c r="B21" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>two</v>
+      </c>
+      <c r="B22" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>one</v>
+      </c>
+      <c r="B23" t="str">
+        <v>un</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>two</v>
+      </c>
+      <c r="B24" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>three</v>
+      </c>
+      <c r="B25" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>one</v>
+      </c>
+      <c r="B26" t="str">
+        <v>un</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>three</v>
+      </c>
+      <c r="B27" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>two</v>
+      </c>
+      <c r="B28" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>three</v>
+      </c>
+      <c r="B29" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>one</v>
+      </c>
+      <c r="B30" t="str">
+        <v>un</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>two</v>
+      </c>
+      <c r="B31" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>one</v>
+      </c>
+      <c r="B32" t="str">
+        <v>un</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>two</v>
+      </c>
+      <c r="B33" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>three</v>
+      </c>
+      <c r="B34" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>three</v>
+      </c>
+      <c r="B35" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>two</v>
+      </c>
+      <c r="B36" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>one</v>
+      </c>
+      <c r="B37" t="str">
+        <v>un</v>
+      </c>
+      <c r="C37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>three</v>
+      </c>
+      <c r="B38" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>two</v>
+      </c>
+      <c r="B39" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>one</v>
+      </c>
+      <c r="B40" t="str">
+        <v>un</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>one</v>
+      </c>
+      <c r="B41" t="str">
+        <v>un</v>
+      </c>
+      <c r="C41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>two</v>
+      </c>
+      <c r="B42" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>three</v>
+      </c>
+      <c r="B43" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>three</v>
+      </c>
+      <c r="B44" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>two</v>
+      </c>
+      <c r="B45" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>one</v>
+      </c>
+      <c r="B46" t="str">
+        <v>un</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>one</v>
+      </c>
+      <c r="B47" t="str">
+        <v>un</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>two</v>
+      </c>
+      <c r="B48" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>three</v>
+      </c>
+      <c r="B49" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>one</v>
+      </c>
+      <c r="B50" t="str">
+        <v>un</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>two</v>
+      </c>
+      <c r="B51" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>three</v>
+      </c>
+      <c r="B52" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>two</v>
+      </c>
+      <c r="B53" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>three</v>
+      </c>
+      <c r="B54" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>one</v>
+      </c>
+      <c r="B55" t="str">
+        <v>un</v>
+      </c>
+      <c r="C55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>one</v>
+      </c>
+      <c r="B56" t="str">
+        <v>un</v>
+      </c>
+      <c r="C56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>two</v>
+      </c>
+      <c r="B57" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>three</v>
+      </c>
+      <c r="B58" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>one</v>
+      </c>
+      <c r="B59" t="str">
+        <v>un</v>
+      </c>
+      <c r="C59">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>three</v>
+      </c>
+      <c r="B60" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>two</v>
+      </c>
+      <c r="B61" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C61">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>one</v>
+      </c>
+      <c r="B62" t="str">
+        <v>un</v>
+      </c>
+      <c r="C62">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>one</v>
+      </c>
+      <c r="B63" t="str">
+        <v>un</v>
+      </c>
+      <c r="C63">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>one</v>
+      </c>
+      <c r="B64" t="str">
+        <v>un</v>
+      </c>
+      <c r="C64">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>one</v>
+      </c>
+      <c r="B65" t="str">
+        <v>un</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>four</v>
+      </c>
+      <c r="B66" t="str">
+        <v>quatre</v>
+      </c>
+      <c r="C66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>one</v>
+      </c>
+      <c r="B67" t="str">
+        <v>un</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>one</v>
+      </c>
+      <c r="B68" t="str">
+        <v>un</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>one</v>
+      </c>
+      <c r="B69" t="str">
+        <v>un</v>
+      </c>
+      <c r="C69">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>one</v>
+      </c>
+      <c r="B70" t="str">
+        <v>un</v>
+      </c>
+      <c r="C70">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>one</v>
+      </c>
+      <c r="B71" t="str">
+        <v>une</v>
+      </c>
+      <c r="C71">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>one</v>
+      </c>
+      <c r="B72" t="str">
+        <v>un</v>
+      </c>
+      <c r="C72">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>one</v>
+      </c>
+      <c r="B73" t="str">
+        <v>un</v>
+      </c>
+      <c r="C73">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>one</v>
+      </c>
+      <c r="B74" t="str">
+        <v>un</v>
+      </c>
+      <c r="C74">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>two</v>
+      </c>
+      <c r="B75" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>one</v>
+      </c>
+      <c r="B76" t="str">
+        <v>un(e)</v>
+      </c>
+      <c r="C76">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>one</v>
+      </c>
+      <c r="B77" t="str">
+        <v>un</v>
+      </c>
+      <c r="C77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>one</v>
+      </c>
+      <c r="B78" t="str">
+        <v>un</v>
+      </c>
+      <c r="C78">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>one</v>
+      </c>
+      <c r="B79" t="str">
+        <v>un</v>
+      </c>
+      <c r="C79">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>one</v>
+      </c>
+      <c r="B80" t="str">
+        <v>un</v>
+      </c>
+      <c r="C80">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>one</v>
+      </c>
+      <c r="B81" t="str">
+        <v>un</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>one</v>
+      </c>
+      <c r="B82" t="str">
+        <v>un</v>
+      </c>
+      <c r="C82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>one</v>
+      </c>
+      <c r="B83" t="str">
+        <v>un</v>
+      </c>
+      <c r="C83">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>one</v>
+      </c>
+      <c r="B84" t="str">
+        <v>un</v>
+      </c>
+      <c r="C84">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>one</v>
+      </c>
+      <c r="B85" t="str">
+        <v>un</v>
+      </c>
+      <c r="C85">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>one</v>
+      </c>
+      <c r="B86" t="str">
+        <v>un</v>
+      </c>
+      <c r="C86">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>one</v>
+      </c>
+      <c r="B87" t="str">
+        <v>un/une</v>
+      </c>
+      <c r="C87">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>one</v>
+      </c>
+      <c r="B88" t="str">
+        <v>un</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>one</v>
+      </c>
+      <c r="B89" t="str">
+        <v>un</v>
+      </c>
+      <c r="C89">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>one</v>
+      </c>
+      <c r="B90" t="str">
+        <v>un</v>
+      </c>
+      <c r="C90">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>one</v>
+      </c>
+      <c r="B91" t="str">
+        <v>un</v>
+      </c>
+      <c r="C91">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>one</v>
+      </c>
+      <c r="B92" t="str">
+        <v>un</v>
+      </c>
+      <c r="C92">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>one</v>
+      </c>
+      <c r="B93" t="str">
+        <v>un</v>
+      </c>
+      <c r="C93">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>one</v>
+      </c>
+      <c r="B94" t="str">
+        <v>un</v>
+      </c>
+      <c r="C94">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>one</v>
+      </c>
+      <c r="B95" t="str">
+        <v>un</v>
+      </c>
+      <c r="C95">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>one</v>
+      </c>
+      <c r="B96" t="str">
+        <v>un</v>
+      </c>
+      <c r="C96">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>one</v>
+      </c>
+      <c r="B97" t="str">
+        <v>un</v>
+      </c>
+      <c r="C97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>one</v>
+      </c>
+      <c r="B98" t="str">
+        <v>un</v>
+      </c>
+      <c r="C98">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>one</v>
+      </c>
+      <c r="B99" t="str">
+        <v>un</v>
+      </c>
+      <c r="C99">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>one</v>
+      </c>
+      <c r="B100" t="str">
+        <v>un</v>
+      </c>
+      <c r="C100">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>one</v>
+      </c>
+      <c r="B101" t="str">
+        <v>un</v>
+      </c>
+      <c r="C101">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>one</v>
+      </c>
+      <c r="B102" t="str">
+        <v>un</v>
+      </c>
+      <c r="C102">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>one</v>
+      </c>
+      <c r="B103" t="str">
+        <v>un</v>
+      </c>
+      <c r="C103">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>one</v>
+      </c>
+      <c r="B104" t="str">
+        <v>un</v>
+      </c>
+      <c r="C104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>one</v>
+      </c>
+      <c r="B105" t="str">
+        <v>un</v>
+      </c>
+      <c r="C105">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>one</v>
+      </c>
+      <c r="B106" t="str">
+        <v>un</v>
+      </c>
+      <c r="C106">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>one</v>
+      </c>
+      <c r="B107" t="str">
+        <v>un</v>
+      </c>
+      <c r="C107">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>five</v>
+      </c>
+      <c r="B108" t="str">
+        <v>cinq</v>
+      </c>
+      <c r="C108">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>one</v>
+      </c>
+      <c r="B109" t="str">
+        <v>un</v>
+      </c>
+      <c r="C109">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>three</v>
+      </c>
+      <c r="B110" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C110">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>one</v>
+      </c>
+      <c r="B111" t="str">
+        <v>un</v>
+      </c>
+      <c r="C111">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>four</v>
+      </c>
+      <c r="B112" t="str">
+        <v>quatre</v>
+      </c>
+      <c r="C112">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>one</v>
+      </c>
+      <c r="B113" t="str">
+        <v>un</v>
+      </c>
+      <c r="C113">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>one</v>
+      </c>
+      <c r="B114" t="str">
+        <v>un</v>
+      </c>
+      <c r="C114">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>one</v>
+      </c>
+      <c r="B115" t="str">
+        <v>un</v>
+      </c>
+      <c r="C115">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>one</v>
+      </c>
+      <c r="B116" t="str">
+        <v>un</v>
+      </c>
+      <c r="C116">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>one</v>
+      </c>
+      <c r="B117" t="str">
+        <v>un</v>
+      </c>
+      <c r="C117">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>one</v>
+      </c>
+      <c r="B118" t="str">
+        <v>un</v>
+      </c>
+      <c r="C118">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>one</v>
+      </c>
+      <c r="B119" t="str">
+        <v>un</v>
+      </c>
+      <c r="C119">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>one</v>
+      </c>
+      <c r="B120" t="str">
+        <v>un</v>
+      </c>
+      <c r="C120">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>one</v>
+      </c>
+      <c r="B121" t="str">
+        <v>un</v>
+      </c>
+      <c r="C121">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>one</v>
+      </c>
+      <c r="B122" t="str">
+        <v>une</v>
+      </c>
+      <c r="C122">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>one</v>
+      </c>
+      <c r="B123" t="str">
+        <v>un</v>
+      </c>
+      <c r="C123">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>one</v>
+      </c>
+      <c r="B124" t="str">
+        <v>un(e)</v>
+      </c>
+      <c r="C124">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>one</v>
+      </c>
+      <c r="B125" t="str">
+        <v>un</v>
+      </c>
+      <c r="C125">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>one</v>
+      </c>
+      <c r="B126" t="str">
+        <v>un</v>
+      </c>
+      <c r="C126">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>one</v>
+      </c>
+      <c r="B127" t="str">
+        <v>un</v>
+      </c>
+      <c r="C127">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>one</v>
+      </c>
+      <c r="B128" t="str">
+        <v>un(e)</v>
+      </c>
+      <c r="C128">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>one</v>
+      </c>
+      <c r="B129" t="str">
+        <v>un</v>
+      </c>
+      <c r="C129">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>one</v>
+      </c>
+      <c r="B130" t="str">
+        <v>un</v>
+      </c>
+      <c r="C130">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>one</v>
+      </c>
+      <c r="B131" t="str">
+        <v>un</v>
+      </c>
+      <c r="C131">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>one</v>
+      </c>
+      <c r="B132" t="str">
+        <v>un</v>
+      </c>
+      <c r="C132">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>one</v>
+      </c>
+      <c r="B133" t="str">
+        <v>un</v>
+      </c>
+      <c r="C133">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>one</v>
+      </c>
+      <c r="B134" t="str">
+        <v>un/une</v>
+      </c>
+      <c r="C134">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>one</v>
+      </c>
+      <c r="B135" t="str">
+        <v>un</v>
+      </c>
+      <c r="C135">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>one</v>
+      </c>
+      <c r="B136" t="str">
+        <v>un</v>
+      </c>
+      <c r="C136">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>one</v>
+      </c>
+      <c r="B137" t="str">
+        <v>un</v>
+      </c>
+      <c r="C137">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>one</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Un</v>
+      </c>
+      <c r="C138">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>one</v>
+      </c>
+      <c r="B139" t="str">
+        <v>un</v>
+      </c>
+      <c r="C139">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>one</v>
+      </c>
+      <c r="B140" t="str">
+        <v>un</v>
+      </c>
+      <c r="C140">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>one</v>
+      </c>
+      <c r="B141" t="str">
+        <v>un</v>
+      </c>
+      <c r="C141">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>one</v>
+      </c>
+      <c r="B142" t="str">
+        <v>un</v>
+      </c>
+      <c r="C142">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>one</v>
+      </c>
+      <c r="B143" t="str">
+        <v>un</v>
+      </c>
+      <c r="C143">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>one</v>
+      </c>
+      <c r="B144" t="str">
+        <v>un</v>
+      </c>
+      <c r="C144">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>one</v>
+      </c>
+      <c r="B145" t="str">
+        <v>un</v>
+      </c>
+      <c r="C145">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>one</v>
+      </c>
+      <c r="B146" t="str">
+        <v>un</v>
+      </c>
+      <c r="C146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>one</v>
+      </c>
+      <c r="B147" t="str">
+        <v>un</v>
+      </c>
+      <c r="C147">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>one</v>
+      </c>
+      <c r="B148" t="str">
+        <v>un</v>
+      </c>
+      <c r="C148">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>one</v>
+      </c>
+      <c r="B149" t="str">
+        <v>un</v>
+      </c>
+      <c r="C149">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>one</v>
+      </c>
+      <c r="B150" t="str">
+        <v>un</v>
+      </c>
+      <c r="C150">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>one</v>
+      </c>
+      <c r="B151" t="str">
+        <v>un</v>
+      </c>
+      <c r="C151">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>one</v>
+      </c>
+      <c r="B152" t="str">
+        <v>un</v>
+      </c>
+      <c r="C152">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>one</v>
+      </c>
+      <c r="B153" t="str">
+        <v>un</v>
+      </c>
+      <c r="C153">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>one</v>
+      </c>
+      <c r="B154" t="str">
+        <v>un</v>
+      </c>
+      <c r="C154">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>one</v>
+      </c>
+      <c r="B155" t="str">
+        <v>un</v>
+      </c>
+      <c r="C155">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>one</v>
+      </c>
+      <c r="B156" t="str">
+        <v>un</v>
+      </c>
+      <c r="C156">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>one</v>
+      </c>
+      <c r="B157" t="str">
+        <v>un</v>
+      </c>
+      <c r="C157">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>three</v>
+      </c>
+      <c r="B158" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C158">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>one</v>
+      </c>
+      <c r="B159" t="str">
+        <v>un</v>
+      </c>
+      <c r="C159">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>one</v>
+      </c>
+      <c r="B160" t="str">
+        <v>un</v>
+      </c>
+      <c r="C160">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>one</v>
+      </c>
+      <c r="B161" t="str">
+        <v>un</v>
+      </c>
+      <c r="C161">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>one</v>
+      </c>
+      <c r="B162" t="str">
+        <v>un</v>
+      </c>
+      <c r="C162">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>two</v>
+      </c>
+      <c r="B163" t="str">
+        <v>deux</v>
+      </c>
+      <c r="C163">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>three</v>
+      </c>
+      <c r="B164" t="str">
+        <v>trois</v>
+      </c>
+      <c r="C164">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C164"/>
   </ignoredErrors>
 </worksheet>
 </file>